--- a/BalanceSheet/AMZN_bal.xlsx
+++ b/BalanceSheet/AMZN_bal.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -88,7 +88,7 @@
     <col min="13" max="13" bestFit="1" customWidth="1" width="17.6"/>
     <col min="14" max="14" bestFit="1" customWidth="1" width="17.6"/>
     <col min="15" max="15" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="16" max="16" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="16" max="16" bestFit="1" customWidth="1" width="17.6"/>
     <col min="17" max="17" bestFit="1" customWidth="1" width="16.5"/>
     <col min="18" max="18" bestFit="1" customWidth="1" width="16.5"/>
     <col min="19" max="19" bestFit="1" customWidth="1" width="16.5"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="16.5"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="16.5"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>73270000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>84653000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>68677000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>71769000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>49574000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>55342000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>43401000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>41463000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>37020000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>41250000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>29765000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>27050000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>24963000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>30986000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>24310000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>21451000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>21531000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>25981000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>18347000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>16540000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>15859000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>19808000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>14428000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>14001000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>13781000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>17416000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>6883000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>7986000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>8666000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>12447000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>7689000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>7463000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>7895000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>11448000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>5248000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>4970000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>5715000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>9576000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>6326000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>6355000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>24289000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>24285000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>20557000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>19540000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>17554000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>20495000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>16887000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>16747000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>15979000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>16677000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>14258000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>12607000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>12026000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>13164000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>10557000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>8046000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>7329000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>8339000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>6566000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>6092000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>5072000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>5654000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>5440000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>4920000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>4772000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>5612000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>4373000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>4125000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>3945000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>4767000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>3057000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>2861000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>2516000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>3817000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>2392000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>2035000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>1813000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>2571000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>1496000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>1438000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>23849000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>24124000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>19837000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>18927000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>20249000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>18981000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>18766000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>18580000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>16432000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>17174000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>15862000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>14824000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>13840000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>16047000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>13711000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>11510000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>10600000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>11461000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>10696000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>9588000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>9582000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>10243000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>8981000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>7470000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>7369000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>8299000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>7316000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>6644000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>6716000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>7411000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>6068000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>5420000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>5395000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>6031000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>5065000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>4380000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>4255000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>4992000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>3770000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>3229000000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>121408000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>132733000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>112969000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>110908000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>85985000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>96334000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>79054000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>76790000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>69431000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>75101000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>59885000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>54481000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>50829000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>60197000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>48578000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>41007000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>39460000000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>45781000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>35609000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>32220000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>30513000000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>35705000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>28849000000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>26391000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>25922000000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>31327000000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>18572000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>18755000000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>19327000000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>24625000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>17334000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>16285000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>16313000000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>21296000000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>13118000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>11793000000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>12154000000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>17490000000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>11904000000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>11279000000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>121461000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>150667000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>134100000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>115054000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>104058000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>97846000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>67662000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>64723000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>61048000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>61797000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>58019000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>54768000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>52331000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>48866000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>45335000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>37083000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>32632000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>29114000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>27177000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>25190000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>23308000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>21838000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>20636000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>19479000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>17736000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>16967000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>15702000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>14089000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>12267000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>10949000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>9991000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>8789000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>7674000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>7060000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>5662000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>5097000000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>4653000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>4417000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>3999000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>3470000000.0</v>
       </c>
     </row>
@@ -865,26 +884,26 @@
           <t>Long-Term Investments</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>3022000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>1433000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>1022000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>550000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>711000000.0</v>
       </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1046,6 +1065,11 @@
         </is>
       </c>
       <c r="AN7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO7" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1058,120 +1082,123 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>15220000000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>19998000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>14960000000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>14751000000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>14739000000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>18803000000.0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>14734000000.0</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>14727000000.0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>14708000000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>14548000000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>14553000000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>13944000000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>13388000000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>13350000000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>13271000000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>4254000000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>3823000000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>3784000000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>3815000000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>3774000000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>3785000000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>3759000000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>3529000000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>3523000000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>3491000000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>3319000000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>3332000000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>2677000000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>2653000000.0</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <v>2655000000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>2635000000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>2614000000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>2535000000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>2552000000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>2540000000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>2521000000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>1970000000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>1955000000.0</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AN8" s="0" t="n">
         <v>1934000000.0</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AO8" s="0" t="n">
         <v>1909000000.0</v>
       </c>
     </row>
@@ -1326,36 +1353,41 @@
           <t/>
         </is>
       </c>
-      <c r="AE9" s="0" t="n">
-        <v>128000000.0</v>
+      <c r="AE9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AF9" s="0" t="n">
         <v>128000000.0</v>
       </c>
       <c r="AG9" s="0" t="n">
+        <v>128000000.0</v>
+      </c>
+      <c r="AH9" s="0" t="n">
         <v>123000000.0</v>
       </c>
-      <c r="AH9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" s="0" t="n">
         <v>38000000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>26000000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>27000000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>28000000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>27000000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>30000000.0</v>
       </c>
     </row>
@@ -1366,120 +1398,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>25660000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>14775000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>18717000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>16579000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>15906000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>11554000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>14535000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>13462000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>12783000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>11202000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>11238000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>10907000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>9814000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>8897000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>8083000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>5437000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>5054000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>4723000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>4296000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>3892000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>3522000000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>3445000000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>3216000000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>3047000000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>2926000000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>2892000000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>2813000000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>2377000000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>2117000000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>1930000000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>1773000000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>1807000000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>1732000000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>1647000000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>1476000000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>1585000000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>1535000000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>1388000000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>1190000000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>1253000000.0</v>
       </c>
     </row>
@@ -1490,120 +1525,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>201669000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>188462000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>169210000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>147406000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>135253000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>128914000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>120045000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>114561000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>108671000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>87547000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>83810000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>79619000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>75533000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>71113000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>66689000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>46774000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>41509000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>37621000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>35288000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>32856000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>30615000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>29042000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>27381000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>26049000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>24153000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>23178000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>21847000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>19143000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>17037000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>15534000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>14527000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>13338000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>12064000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>11259000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>9716000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>9229000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>8185000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>7788000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>7150000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>6662000000.0</v>
       </c>
     </row>
@@ -1614,120 +1652,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>323077000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>321195000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>282179000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>258314000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>221238000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>225248000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>199099000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>191351000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>178102000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>162648000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>143695000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>134100000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>126362000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>131310000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>115267000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>87781000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>80969000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>83402000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>70897000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>65076000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>61128000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>64747000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>56230000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>52440000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>50075000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>54505000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>40419000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>37898000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>36364000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>40159000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>31861000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>29623000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>28377000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>32555000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>22834000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>21022000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>20339000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>25278000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>19054000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>17941000000.0</v>
       </c>
     </row>
@@ -1738,120 +1779,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>63926000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>85788000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>61992000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>59653000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>32012000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>57866000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>35794000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>36063000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>31809000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>38192000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>30904000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>27657000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>25172000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>34616000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>26075000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>21439000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>18891000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>25309000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>18801000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>16123000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>14990000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>20397000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>14437000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>12391000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>11917000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>16459000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>11811000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>10457000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>10590000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>15133000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>10037000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>8990000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>8916000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>13318000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>8369000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>7072000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>6886000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>11145000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>6552000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>5721000000.0</v>
       </c>
     </row>
@@ -1862,120 +1906,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>40939000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>44138000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>34327000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>33863000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>30791000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>32439000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>28961000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>26140000000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>24588000000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>23663000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>18420000000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>17140000000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>16691000000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>18170000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>15844000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>14016000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>13054000000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>13739000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>10497000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>9613000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>9431000000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>10372000000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>9157000000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>8959000000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>8840000000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>9807000000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>7217000000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>6688000000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>6251000000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>6688000000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>6098000000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>5745000000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>5416000000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>4892000000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>4236000000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>3892000000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>3602000000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>3751000000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>2426000000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>2324000000.0</v>
       </c>
     </row>
@@ -1985,26 +2032,26 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>16115000000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>14571000000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>14745000000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>14414000000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>14330000000.0</v>
       </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2166,6 +2213,11 @@
         </is>
       </c>
       <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2178,97 +2230,95 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>10539000000.0</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>37731000000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>29007000000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>28115000000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>25241000000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>26299000000.0</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>7381000000.0</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>7475000000.0</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>7298000000.0</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>6536000000.0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>6000000000.0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>6004000000.0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>6182000000.0</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>5097000000.0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>5153000000.0</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>5065000000.0</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>5454000000.0</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>4768000000.0</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>4200000000.0</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>3851000000.0</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>3766000000.0</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>3118000000.0</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>3063000000.0</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>2562000000.0</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>2420000000.0</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>1823000000.0</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>1814000000.0</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>1606000000.0</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>1516000000.0</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>1159000000.0</v>
       </c>
-      <c r="AE16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF16" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2279,14 +2329,14 @@
           <t/>
         </is>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AH16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI16" s="0" t="n">
         <v>792000000.0</v>
       </c>
-      <c r="AI16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ16" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2308,6 +2358,11 @@
         </is>
       </c>
       <c r="AN16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO16" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2320,120 +2375,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>115404000000.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>126385000000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>101912000000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>93896000000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>79711000000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>87812000000.0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>72136000000.0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>69678000000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>63695000000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>68391000000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>55324000000.0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>50801000000.0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>48045000000.0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>57883000000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>47072000000.0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>40520000000.0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>37399000000.0</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>43816000000.0</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>33498000000.0</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>29587000000.0</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>28187000000.0</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>33887000000.0</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>26657000000.0</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>23912000000.0</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>23177000000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>28089000000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>20842000000.0</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>18751000000.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>18357000000.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>22980000000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>16135000000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>14735000000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>14332000000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>19002000000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>12605000000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>10964000000.0</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>10488000000.0</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>14896000000.0</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>8978000000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>8045000000.0</v>
       </c>
     </row>
@@ -2444,120 +2502,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>31868000000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>84389000000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>81518000000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>75926000000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>63737000000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>63205000000.0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>22472000000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>23329000000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>23322000000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>23495000000.0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>24684000000.0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>24638000000.0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>24640000000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>24743000000.0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>24710000000.0</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>7683000000.0</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>7691000000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>7694000000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>8205000000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>8212000000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>8219000000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>8227000000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>8243000000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>8250000000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>8257000000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>8265000000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>3099000000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>3119000000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>3147000000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>3191000000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>3043000000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>3042000000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>3040000000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>3084000000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>2676000000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>2553000000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>2580000000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>255000000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>2310000000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>2131000000.0</v>
       </c>
     </row>
@@ -2567,30 +2628,30 @@
           <t>Non-current Revenue (Deferred)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>1900000000.0</v>
       </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>1800000000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>2000000000.0</v>
       </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2752,6 +2813,11 @@
         </is>
       </c>
       <c r="AN19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO19" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2763,26 +2829,26 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>-1636000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>295000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>465000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>322000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>184000000.0</v>
       </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2944,6 +3010,11 @@
         </is>
       </c>
       <c r="AN20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO20" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2956,109 +3027,107 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>19418000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>15117000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>15974000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>14764000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>10718000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>10171000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>10925000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>10149000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>9400000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>17563000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>24562000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>23666000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>22214000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>20975000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>18827000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>16364000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>14205000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>12607000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>11412000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>10739000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>9966000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>9249000000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>8900000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>8510000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>7768000000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>7410000000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>6142000000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>5426000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>4532000000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>4242000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>3596000000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>3113000000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>2573000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>2277000000.0</v>
       </c>
-      <c r="AI21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ21" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3069,15 +3138,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AL21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM21" s="0" t="n">
         <v>2370000000.0</v>
       </c>
-      <c r="AM21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO21" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3090,120 +3164,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>104353000000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>101406000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>97492000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>90690000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>76255000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>75376000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>70455000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>68612000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>65997000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>50708000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>49246000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>48304000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>46854000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>45718000000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>43537000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>24047000000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>21896000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>20301000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>19617000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>18951000000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>18185000000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>17476000000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>17143000000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>16760000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>16025000000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>15675000000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>9241000000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>8545000000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>7679000000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>7433000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>6639000000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>6155000000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>5613000000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>5361000000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>2676000000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>2553000000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>2580000000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>2625000000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>2310000000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>2131000000.0</v>
       </c>
     </row>
@@ -3214,120 +3291,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>219757000000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>227791000000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>199404000000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>184586000000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>155966000000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>163188000000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>142591000000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>138290000000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>129692000000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>119099000000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>104570000000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>99105000000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>94899000000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>103601000000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>90609000000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>64567000000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>59295000000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>64117000000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>53115000000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>48538000000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>46372000000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>51363000000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>43800000000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>40672000000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>39202000000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>43764000000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>30083000000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>27296000000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>26036000000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>30413000000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>22774000000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>20890000000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>19945000000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>24363000000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>15281000000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>13517000000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>13068000000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>17521000000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>11288000000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>10176000000.0</v>
       </c>
     </row>
@@ -3338,120 +3418,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>45160000000.0</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>42865000000.0</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>40307000000.0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>38017000000.0</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>35412000000.0</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>33658000000.0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>31817000000.0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>30035000000.0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>28059000000.0</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>26791000000.0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>25375000000.0</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>24028000000.0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>22563000000.0</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>21389000000.0</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>20212000000.0</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>19129000000.0</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>17976000000.0</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>17186000000.0</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>15968000000.0</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>15026000000.0</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>14144000000.0</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>13394000000.0</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>12874000000.0</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>12233000000.0</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>11565000000.0</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>11135000000.0</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>10827000000.0</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>10405000000.0</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>10019000000.0</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>9573000000.0</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>9175000000.0</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>8893000000.0</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>8585000000.0</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>8347000000.0</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>7863000000.0</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>7573000000.0</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>7192000000.0</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>6990000000.0</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>6824000000.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>6675000000.0</v>
       </c>
     </row>
@@ -3578,6 +3661,9 @@
       <c r="AN25" s="0" t="n">
         <v>5000000.0</v>
       </c>
+      <c r="AO25" s="0" t="n">
+        <v>5000000.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -3586,120 +3672,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>60658000000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>52551000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>45329000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>38998000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>33755000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>31220000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>27952000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>25818000000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>23193000000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>19625000000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>16616000000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>13733000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>11199000000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>8636000000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>6779000000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>6524000000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>6327000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>4916000000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>4167000000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>3915000000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>3058000000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>2545000000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>2063000000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>1984000000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>1892000000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>1949000000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>1735000000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>2172000000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>2298000000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>2190000000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>1950000000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>1991000000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>1998000000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>1916000000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>1818000000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>2092000000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>2085000000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>1955000000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>1778000000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>1715000000.0</v>
       </c>
     </row>
@@ -3818,12 +3907,15 @@
         <v>1837000000.0</v>
       </c>
       <c r="AL27" s="0" t="n">
+        <v>1837000000.0</v>
+      </c>
+      <c r="AM27" s="0" t="n">
         <v>877000000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>600000000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>600000000.0</v>
       </c>
     </row>
@@ -3834,120 +3926,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>103320000000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>93404000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>82775000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>73728000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>65272000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>62060000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>56508000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>53061000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>48410000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>43549000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>39125000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>34995000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>31463000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>27709000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>24658000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>23214000000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>21674000000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>19285000000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>17782000000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>16538000000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>14756000000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>13384000000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>12430000000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>11768000000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>10873000000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>10741000000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>10336000000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>10602000000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>10328000000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>9746000000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>9087000000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>8733000000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>8432000000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>8192000000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>7553000000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>7505000000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>7271000000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>7757000000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>7766000000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>7765000000.0</v>
       </c>
     </row>
@@ -3958,120 +4053,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>103320000000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>93404000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>82775000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>73728000000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>65272000000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>62060000000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>56508000000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>53061000000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>48410000000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>43549000000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>39125000000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>34995000000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>31463000000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>27709000000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>24658000000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>23214000000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>21674000000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>19285000000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>17782000000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>16538000000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>14756000000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>13384000000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>12430000000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>11768000000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>10873000000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>10741000000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>10336000000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>10602000000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>10328000000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>9746000000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>9087000000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>8733000000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>8432000000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>8192000000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>7553000000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>7505000000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>7271000000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>7757000000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>7766000000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>7765000000.0</v>
       </c>
     </row>
@@ -4082,120 +4180,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>323077000000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>321195000000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>282179000000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>258314000000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>221238000000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>225248000000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>199099000000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>191351000000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>178102000000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>162648000000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>143695000000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>134100000000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>126362000000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>131310000000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>115267000000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>87781000000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>80969000000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>83402000000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>70897000000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>65076000000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>61128000000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>64747000000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>56230000000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>52440000000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>50075000000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>54505000000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>40419000000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>37898000000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>36364000000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>40159000000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>31861000000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>29623000000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>28377000000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>32555000000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>22834000000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>21022000000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>20339000000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>25278000000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>19054000000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>17941000000.0</v>
       </c>
     </row>
@@ -4206,120 +4307,123 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>504000000.0</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>503000000.0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>502000000.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>501000000.0</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>499000000.0</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>498000000.0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>495000000.0</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>494000000.0</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>492000000.0</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>491000000.0</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>489000000.0</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>487000000.0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>485000000.0</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>484000000.0</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>482000000.0</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>480000000.0</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>478000000.0</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>477000000.0</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>475000000.0</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>474000000.0</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>472000000.0</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>471000000.0</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>469000000.0</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>468000000.0</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>466000000.0</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>465000000.0</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>463000000.0</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>462000000.0</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>460000000.0</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>459000000.0</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>458000000.0</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>457000000.0</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>455000000.0</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>454000000.0</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>453000000.0</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>452000000.0</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>450000000.0</v>
-      </c>
-      <c r="AL31" s="0" t="n">
-        <v>455000000.0</v>
       </c>
       <c r="AM31" s="0" t="n">
         <v>455000000.0</v>
       </c>
       <c r="AN31" s="0" t="n">
+        <v>455000000.0</v>
+      </c>
+      <c r="AO31" s="0" t="n">
         <v>454000000.0</v>
       </c>
     </row>
@@ -4330,120 +4434,123 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
+        <v>88100000000.0</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>78387000000.0</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>67815000000.0</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>58977000000.0</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>50533000000.0</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>47306000000.0</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>41774000000.0</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>38334000000.0</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>33702000000.0</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>29001000000.0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>24572000000.0</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>21051000000.0</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>18075000000.0</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>14359000000.0</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>11387000000.0</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>18960000000.0</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>17851000000.0</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>15501000000.0</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>13967000000.0</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>12764000000.0</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>10971000000.0</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>9625000000.0</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>8901000000.0</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>8245000000.0</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>7382000000.0</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>7422000000.0</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>7004000000.0</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>7925000000.0</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>7675000000.0</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>7091000000.0</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>6452000000.0</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>6119000000.0</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>5897000000.0</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>5640000000.0</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>5013000000.0</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>4984000000.0</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>5301000000.0</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>5802000000.0</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>5832000000.0</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>5856000000.0</v>
       </c>
     </row>
@@ -4453,121 +4560,126 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>15851000000.0</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="D33" s="0" t="n">
         <v>27412000000.0</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="E33" s="0" t="n">
         <v>18902000000.0</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>28577000000.0</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="G33" s="0" t="n">
         <v>22193000000.0</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>-20929000000.0</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>-18134000000.0</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>-13698000000.0</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>-17755000000.0</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>-5081000000.0</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>-2412000000.0</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="N33" s="0" t="n">
         <v>-323000000.0</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="O33" s="0" t="n">
         <v>-6243000000.0</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>400000000.0</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>-13768000000.0</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>-13840000000.0</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>-18287000000.0</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="T33" s="0" t="n">
         <v>-10142000000.0</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="U33" s="0" t="n">
         <v>-8328000000.0</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="V33" s="0" t="n">
         <v>-7640000000.0</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="W33" s="0" t="n">
         <v>-11581000000.0</v>
       </c>
-      <c r="W33" s="0" t="n">
+      <c r="X33" s="0" t="n">
         <v>-6185000000.0</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="Y33" s="0" t="n">
         <v>-5751000000.0</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Z33" s="0" t="n">
         <v>-5524000000.0</v>
       </c>
-      <c r="Z33" s="0" t="n">
+      <c r="AA33" s="0" t="n">
         <v>-9151000000.0</v>
       </c>
-      <c r="AA33" s="0" t="n">
+      <c r="AB33" s="0" t="n">
         <v>-3784000000.0</v>
       </c>
-      <c r="AB33" s="0" t="n">
+      <c r="AC33" s="0" t="n">
         <v>-4867000000.0</v>
       </c>
-      <c r="AC33" s="0" t="n">
+      <c r="AD33" s="0" t="n">
         <v>-5519000000.0</v>
       </c>
-      <c r="AD33" s="0" t="n">
+      <c r="AE33" s="0" t="n">
         <v>-9256000000.0</v>
       </c>
-      <c r="AE33" s="0" t="n">
+      <c r="AF33" s="0" t="n">
         <v>-4646000000.0</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AG33" s="0" t="n">
         <v>-4421000000.0</v>
       </c>
-      <c r="AG33" s="0" t="n">
+      <c r="AH33" s="0" t="n">
         <v>-4855000000.0</v>
       </c>
-      <c r="AH33" s="0" t="n">
+      <c r="AI33" s="0" t="n">
         <v>-8364000000.0</v>
       </c>
-      <c r="AI33" s="0" t="n">
+      <c r="AJ33" s="0" t="n">
         <v>-2572000000.0</v>
       </c>
-      <c r="AJ33" s="0" t="n">
+      <c r="AK33" s="0" t="n">
         <v>-2417000000.0</v>
       </c>
-      <c r="AK33" s="0" t="n">
+      <c r="AL33" s="0" t="n">
         <v>-3135000000.0</v>
       </c>
-      <c r="AL33" s="0" t="n">
+      <c r="AM33" s="0" t="n">
         <v>-9321000000.0</v>
       </c>
-      <c r="AM33" s="0" t="n">
+      <c r="AN33" s="0" t="n">
         <v>-4016000000.0</v>
       </c>
-      <c r="AN33" s="0" t="n">
+      <c r="AO33" s="0" t="n">
         <v>-4224000000.0</v>
       </c>
     </row>
@@ -4577,121 +4689,126 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>100504000000.0</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="D34" s="0" t="n">
         <v>96089000000.0</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="E34" s="0" t="n">
         <v>90671000000.0</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="F34" s="0" t="n">
         <v>78151000000.0</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="G34" s="0" t="n">
         <v>77535000000.0</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>22472000000.0</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>23329000000.0</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>23322000000.0</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>23495000000.0</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>24684000000.0</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>24638000000.0</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="N34" s="0" t="n">
         <v>24640000000.0</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="O34" s="0" t="n">
         <v>24743000000.0</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>24710000000.0</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="Q34" s="0" t="n">
         <v>7683000000.0</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="R34" s="0" t="n">
         <v>7691000000.0</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="S34" s="0" t="n">
         <v>7694000000.0</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="T34" s="0" t="n">
         <v>8205000000.0</v>
       </c>
-      <c r="T34" s="0" t="n">
+      <c r="U34" s="0" t="n">
         <v>8212000000.0</v>
       </c>
-      <c r="U34" s="0" t="n">
+      <c r="V34" s="0" t="n">
         <v>8219000000.0</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="W34" s="0" t="n">
         <v>8227000000.0</v>
       </c>
-      <c r="W34" s="0" t="n">
+      <c r="X34" s="0" t="n">
         <v>8243000000.0</v>
       </c>
-      <c r="X34" s="0" t="n">
+      <c r="Y34" s="0" t="n">
         <v>8250000000.0</v>
       </c>
-      <c r="Y34" s="0" t="n">
+      <c r="Z34" s="0" t="n">
         <v>8257000000.0</v>
       </c>
-      <c r="Z34" s="0" t="n">
+      <c r="AA34" s="0" t="n">
         <v>8265000000.0</v>
       </c>
-      <c r="AA34" s="0" t="n">
+      <c r="AB34" s="0" t="n">
         <v>3099000000.0</v>
       </c>
-      <c r="AB34" s="0" t="n">
+      <c r="AC34" s="0" t="n">
         <v>3119000000.0</v>
       </c>
-      <c r="AC34" s="0" t="n">
+      <c r="AD34" s="0" t="n">
         <v>3147000000.0</v>
       </c>
-      <c r="AD34" s="0" t="n">
+      <c r="AE34" s="0" t="n">
         <v>3191000000.0</v>
       </c>
-      <c r="AE34" s="0" t="n">
+      <c r="AF34" s="0" t="n">
         <v>3043000000.0</v>
       </c>
-      <c r="AF34" s="0" t="n">
+      <c r="AG34" s="0" t="n">
         <v>3042000000.0</v>
       </c>
-      <c r="AG34" s="0" t="n">
+      <c r="AH34" s="0" t="n">
         <v>3040000000.0</v>
       </c>
-      <c r="AH34" s="0" t="n">
+      <c r="AI34" s="0" t="n">
         <v>3084000000.0</v>
       </c>
-      <c r="AI34" s="0" t="n">
+      <c r="AJ34" s="0" t="n">
         <v>2676000000.0</v>
       </c>
-      <c r="AJ34" s="0" t="n">
+      <c r="AK34" s="0" t="n">
         <v>2553000000.0</v>
       </c>
-      <c r="AK34" s="0" t="n">
+      <c r="AL34" s="0" t="n">
         <v>2580000000.0</v>
       </c>
-      <c r="AL34" s="0" t="n">
+      <c r="AM34" s="0" t="n">
         <v>255000000.0</v>
       </c>
-      <c r="AM34" s="0" t="n">
+      <c r="AN34" s="0" t="n">
         <v>2310000000.0</v>
       </c>
-      <c r="AN34" s="0" t="n">
+      <c r="AO34" s="0" t="n">
         <v>2131000000.0</v>
       </c>
     </row>

--- a/BalanceSheet/AMZN_bal.xlsx
+++ b/BalanceSheet/AMZN_bal.xlsx
@@ -4560,10 +4560,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>-41402000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>15851000000.0</v>
@@ -4689,10 +4687,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>31868000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>100504000000.0</v>
